--- a/docs/StructureDefinition-my-diagnosis.xlsx
+++ b/docs/StructureDefinition-my-diagnosis.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/my-diagnosis</t>
+    <t>http://example.org/ig/example/StructureDefinition/my-diagnosis</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-20T09:15:43-05:00</t>
+    <t>2023-04-26T11:15:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -778,7 +778,7 @@
     <t>NumberOfRemissions</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/number-of-remissions}
+    <t xml:space="preserve">Extension {http://example.org/ig/example/StructureDefinition/number-of-remissions}
 </t>
   </si>
   <si>
@@ -987,7 +987,7 @@
     <t>0..1 to account for primarily narrative only resources.</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/hematopoietic-disorder-vs</t>
+    <t>http://example.org/ig/example/ValueSet/hematopoietic-disorder-vs</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1051,7 +1051,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://example.org/StructureDefinition/my-patient)
+    <t xml:space="preserve">Reference(http://example.org/ig/example/StructureDefinition/my-patient)
 </t>
   </si>
   <si>
@@ -1729,7 +1729,7 @@
     <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="67.51171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="78.36328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1744,7 +1744,7 @@
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="95.77734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.55859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="62.41015625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-my-diagnosis.xlsx
+++ b/docs/StructureDefinition-my-diagnosis.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.org/ig/example/StructureDefinition/my-diagnosis</t>
+    <t>http://example.org/ig/exampleig/StructureDefinition/my-diagnosis</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-26T11:15:05-05:00</t>
+    <t>2023-04-27T11:07:01-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -778,7 +778,7 @@
     <t>NumberOfRemissions</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://example.org/ig/example/StructureDefinition/number-of-remissions}
+    <t xml:space="preserve">Extension {http://example.org/ig/exampleig/StructureDefinition/number-of-remissions}
 </t>
   </si>
   <si>
@@ -987,7 +987,7 @@
     <t>0..1 to account for primarily narrative only resources.</t>
   </si>
   <si>
-    <t>http://example.org/ig/example/ValueSet/hematopoietic-disorder-vs</t>
+    <t>http://example.org/ig/exampleig/ValueSet/hematopoietic-disorder-vs</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1051,7 +1051,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://example.org/ig/example/StructureDefinition/my-patient)
+    <t xml:space="preserve">Reference(http://example.org/ig/exampleig/StructureDefinition/my-patient)
 </t>
   </si>
   <si>
@@ -1729,7 +1729,7 @@
     <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="78.36328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="79.90625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1744,7 +1744,7 @@
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="95.77734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="62.41015625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="63.953125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-my-diagnosis.xlsx
+++ b/docs/StructureDefinition-my-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-27T11:07:01-05:00</t>
+    <t>2023-04-28T11:00:43-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-my-diagnosis.xlsx
+++ b/docs/StructureDefinition-my-diagnosis.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T11:00:43-05:00</t>
+    <t>2023-05-02T14:51:26-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
